--- a/Data/CancerSEEK/Compairson of Proteins.xlsx
+++ b/Data/CancerSEEK/Compairson of Proteins.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:G742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G742"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,602 +575,602 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0.49462</v>
+        <v>0.23404</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>0.64154</v>
+        <v>0.60997000000000001</v>
       </c>
       <c r="G6">
-        <f>ABS(C6-F5)</f>
-        <v>0.19675000000000004</v>
+        <f>ABS(C6-F6)</f>
+        <v>0.37592999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.23404</v>
+        <v>0.36331000000000002</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7">
-        <v>0.60997000000000001</v>
+        <v>0.73172000000000004</v>
       </c>
       <c r="G7">
         <f>ABS(C7-F7)</f>
-        <v>0.37592999999999999</v>
+        <v>0.36841000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>0.36331000000000002</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>0.73172000000000004</v>
+        <v>0.58799000000000001</v>
       </c>
       <c r="G8">
         <f>ABS(C8-F8)</f>
-        <v>0.36841000000000002</v>
+        <v>0.35548999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.23250000000000001</v>
+        <v>0.32335000000000003</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>0.58799000000000001</v>
+        <v>0.67122000000000004</v>
       </c>
       <c r="G9">
         <f>ABS(C9-F9)</f>
-        <v>0.35548999999999997</v>
+        <v>0.34787000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>0.32335000000000003</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>0.67122000000000004</v>
+        <v>0.85363</v>
       </c>
       <c r="G10">
         <f>ABS(C10-F10)</f>
-        <v>0.34787000000000001</v>
+        <v>0.34662999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0.50700000000000001</v>
+        <v>0.11638</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>0.85363</v>
+        <v>0.46154000000000001</v>
       </c>
       <c r="G11">
         <f>ABS(C11-F11)</f>
-        <v>0.34662999999999999</v>
+        <v>0.34516000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.11638</v>
+        <v>0.29937999999999998</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>0.46154000000000001</v>
+        <v>0.64354</v>
       </c>
       <c r="G12">
         <f>ABS(C12-F12)</f>
-        <v>0.34516000000000002</v>
+        <v>0.34416000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0.29937999999999998</v>
+        <v>0.17791999999999999</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>0.64354</v>
+        <v>0.51775000000000004</v>
       </c>
       <c r="G13">
         <f>ABS(C13-F13)</f>
-        <v>0.34416000000000002</v>
+        <v>0.33983000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0.17791999999999999</v>
+        <v>0.33080999999999999</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>0.51775000000000004</v>
+        <v>0.66005000000000003</v>
       </c>
       <c r="G14">
         <f>ABS(C14-F14)</f>
-        <v>0.33983000000000008</v>
+        <v>0.32924000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>0.33080999999999999</v>
+        <v>0.12759000000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15">
-        <v>0.66005000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="G15">
         <f>ABS(C15-F15)</f>
-        <v>0.32924000000000003</v>
+        <v>0.32240999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>0.12759000000000001</v>
+        <v>0.20221</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>0.45</v>
+        <v>0.52027000000000001</v>
       </c>
       <c r="G16">
         <f>ABS(C16-F16)</f>
-        <v>0.32240999999999997</v>
+        <v>0.31806000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>0.20221</v>
+        <v>0.23341000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17">
-        <v>0.52027000000000001</v>
+        <v>0.54074</v>
       </c>
       <c r="G17">
         <f>ABS(C17-F17)</f>
-        <v>0.31806000000000001</v>
+        <v>0.30732999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>0.23341000000000001</v>
+        <v>0.27472000000000002</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>0.54074</v>
+        <v>0.56418999999999997</v>
       </c>
       <c r="G18">
         <f>ABS(C18-F18)</f>
-        <v>0.30732999999999999</v>
+        <v>0.28946999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.27472000000000002</v>
+        <v>0.27990999999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>0.56418999999999997</v>
+        <v>0.56835999999999998</v>
       </c>
       <c r="G19">
         <f>ABS(C19-F19)</f>
-        <v>0.28946999999999995</v>
+        <v>0.28844999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>0.27990999999999999</v>
+        <v>0.25570999999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>0.56835999999999998</v>
+        <v>0.53766999999999998</v>
       </c>
       <c r="G20">
         <f>ABS(C20-F20)</f>
-        <v>0.28844999999999998</v>
+        <v>0.28195999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>0.25570999999999999</v>
+        <v>0.37039</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>0.53766999999999998</v>
+        <v>0.64502999999999999</v>
       </c>
       <c r="G21">
         <f>ABS(C21-F21)</f>
-        <v>0.28195999999999999</v>
+        <v>0.27464</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.37039</v>
+        <v>0.36137000000000002</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>0.64502999999999999</v>
+        <v>0.63288999999999995</v>
       </c>
       <c r="G22">
         <f>ABS(C22-F22)</f>
-        <v>0.27464</v>
+        <v>0.27151999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.36137000000000002</v>
+        <v>0.31466</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>0.63288999999999995</v>
+        <v>0.58448</v>
       </c>
       <c r="G23">
         <f>ABS(C23-F23)</f>
-        <v>0.27151999999999993</v>
+        <v>0.26982</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.31466</v>
+        <v>0.41699000000000003</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>0.58448</v>
+        <v>0.68659000000000003</v>
       </c>
       <c r="G24">
         <f>ABS(C24-F24)</f>
-        <v>0.26982</v>
+        <v>0.26960000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.41699000000000003</v>
+        <v>0.23091</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>0.68659000000000003</v>
+        <v>0.49612000000000001</v>
       </c>
       <c r="G25">
         <f>ABS(C25-F25)</f>
-        <v>0.26960000000000001</v>
+        <v>0.26521</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>0.23091</v>
+        <v>0.1701</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F26">
-        <v>0.49612000000000001</v>
+        <v>0.43406</v>
       </c>
       <c r="G26">
         <f>ABS(C26-F26)</f>
-        <v>0.26521</v>
+        <v>0.26395999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>0.1701</v>
+        <v>0.22645000000000001</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>0.43406</v>
+        <v>0.48536000000000001</v>
       </c>
       <c r="G27">
         <f>ABS(C27-F27)</f>
-        <v>0.26395999999999997</v>
+        <v>0.25890999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>0.22645000000000001</v>
+        <v>0.52849000000000002</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>0.48536000000000001</v>
+        <v>0.78476000000000001</v>
       </c>
       <c r="G28">
         <f>ABS(C28-F28)</f>
-        <v>0.25890999999999997</v>
+        <v>0.25627</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.52849000000000002</v>
+        <v>0.32189000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F29">
-        <v>0.78476000000000001</v>
+        <v>0.57645000000000002</v>
       </c>
       <c r="G29">
         <f>ABS(C29-F29)</f>
-        <v>0.25627</v>
+        <v>0.25456000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>0.32189000000000001</v>
+        <v>0.26558999999999999</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F30">
-        <v>0.57645000000000002</v>
+        <v>0.35397000000000001</v>
       </c>
       <c r="G30">
-        <f>ABS(C30-F30)</f>
-        <v>0.25456000000000001</v>
+        <f>ABS(C30-F31)</f>
+        <v>0.16859000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,74 +2135,74 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>0.20441999999999999</v>
+        <v>0.49462</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F71">
-        <v>0.39896999999999999</v>
+        <v>0.64154</v>
       </c>
       <c r="G71">
-        <f>ABS(C71-F71)</f>
-        <v>0.19455</v>
+        <f>ABS(C71-F70)</f>
+        <v>5.3389999999999993E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.16300000000000001</v>
+        <v>0.20441999999999999</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F72">
-        <v>0.35679</v>
+        <v>0.39896999999999999</v>
       </c>
       <c r="G72">
         <f>ABS(C72-F72)</f>
-        <v>0.19378999999999999</v>
+        <v>0.19455</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="C73">
-        <v>0.13070999999999999</v>
-      </c>
-      <c r="D73" t="s">
-        <v>24</v>
-      </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F73">
-        <v>0.32449</v>
+        <v>0.35679</v>
       </c>
       <c r="G73">
         <f>ABS(C73-F73)</f>
-        <v>0.19378000000000001</v>
+        <v>0.19378999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2210,599 +2210,599 @@
         <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>0.30308000000000002</v>
+        <v>0.13070999999999999</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>0.49575000000000002</v>
+        <v>0.32449</v>
       </c>
       <c r="G74">
         <f>ABS(C74-F74)</f>
-        <v>0.19267000000000001</v>
+        <v>0.19378000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>0.23702000000000001</v>
+        <v>0.30308000000000002</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>0.42652000000000001</v>
+        <v>0.49575000000000002</v>
       </c>
       <c r="G75">
         <f>ABS(C75-F75)</f>
-        <v>0.1895</v>
+        <v>0.19267000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <v>0.13299</v>
+        <v>0.23702000000000001</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F76">
-        <v>0.32218999999999998</v>
+        <v>0.42652000000000001</v>
       </c>
       <c r="G76">
         <f>ABS(C76-F76)</f>
-        <v>0.18919999999999998</v>
+        <v>0.1895</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C77">
-        <v>0.49936000000000003</v>
+        <v>0.13299</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F77">
-        <v>0.68789</v>
+        <v>0.32218999999999998</v>
       </c>
       <c r="G77">
         <f>ABS(C77-F77)</f>
-        <v>0.18852999999999998</v>
+        <v>0.18919999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>0.12112000000000001</v>
+        <v>0.49936000000000003</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F78">
-        <v>0.30934</v>
+        <v>0.68789</v>
       </c>
       <c r="G78">
         <f>ABS(C78-F78)</f>
-        <v>0.18822</v>
+        <v>0.18852999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>0.20257</v>
+        <v>0.12112000000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>0.39068000000000003</v>
+        <v>0.30934</v>
       </c>
       <c r="G79">
         <f>ABS(C79-F79)</f>
-        <v>0.18811000000000003</v>
+        <v>0.18822</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>0.15522</v>
+        <v>0.20257</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F80">
-        <v>0.34297</v>
+        <v>0.39068000000000003</v>
       </c>
       <c r="G80">
         <f>ABS(C80-F80)</f>
-        <v>0.18775</v>
+        <v>0.18811000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>0.29893999999999998</v>
+        <v>0.15522</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>0.48597000000000001</v>
+        <v>0.34297</v>
       </c>
       <c r="G81">
         <f>ABS(C81-F81)</f>
-        <v>0.18703000000000003</v>
+        <v>0.18775</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C82">
-        <v>0.16705999999999999</v>
+        <v>0.29893999999999998</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F82">
-        <v>0.35300999999999999</v>
+        <v>0.48597000000000001</v>
       </c>
       <c r="G82">
         <f>ABS(C82-F82)</f>
-        <v>0.18595</v>
+        <v>0.18703000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>0.16705999999999999</v>
+      </c>
+      <c r="D83" t="s">
         <v>17</v>
       </c>
-      <c r="C83">
-        <v>0.19664999999999999</v>
-      </c>
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F83">
-        <v>0.38214999999999999</v>
+        <v>0.35300999999999999</v>
       </c>
       <c r="G83">
         <f>ABS(C83-F83)</f>
-        <v>0.1855</v>
+        <v>0.18595</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>0.17213999999999999</v>
+        <v>0.19664999999999999</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F84">
-        <v>0.35287000000000002</v>
+        <v>0.38214999999999999</v>
       </c>
       <c r="G84">
         <f>ABS(C84-F84)</f>
-        <v>0.18073000000000003</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85">
-        <v>0.35981000000000002</v>
+        <v>0.17213999999999999</v>
       </c>
       <c r="D85" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85">
-        <v>0.53859999999999997</v>
+        <v>0.35287000000000002</v>
       </c>
       <c r="G85">
         <f>ABS(C85-F85)</f>
-        <v>0.17878999999999995</v>
+        <v>0.18073000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C86">
-        <v>0.25469000000000003</v>
+        <v>0.35981000000000002</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F86">
-        <v>0.43101</v>
+        <v>0.53859999999999997</v>
       </c>
       <c r="G86">
         <f>ABS(C86-F86)</f>
-        <v>0.17631999999999998</v>
+        <v>0.17878999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>0.19345000000000001</v>
+        <v>0.25469000000000003</v>
       </c>
       <c r="D87" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F87">
-        <v>0.36953999999999998</v>
+        <v>0.43101</v>
       </c>
       <c r="G87">
         <f>ABS(C87-F87)</f>
-        <v>0.17608999999999997</v>
+        <v>0.17631999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C88">
-        <v>0.20174</v>
+        <v>0.19345000000000001</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F88">
-        <v>0.37736999999999998</v>
+        <v>0.36953999999999998</v>
       </c>
       <c r="G88">
         <f>ABS(C88-F88)</f>
-        <v>0.17562999999999998</v>
+        <v>0.17608999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>0.19721</v>
+        <v>0.20174</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F89">
-        <v>0.37245</v>
+        <v>0.37736999999999998</v>
       </c>
       <c r="G89">
         <f>ABS(C89-F89)</f>
-        <v>0.17524000000000001</v>
+        <v>0.17562999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>0.20899999999999999</v>
+        <v>0.19721</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F90">
-        <v>0.38388</v>
+        <v>0.37245</v>
       </c>
       <c r="G90">
         <f>ABS(C90-F90)</f>
-        <v>0.17488000000000001</v>
+        <v>0.17524000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
       </c>
       <c r="C91">
-        <v>0.19838</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
         <v>25</v>
       </c>
       <c r="F91">
-        <v>0.37304999999999999</v>
+        <v>0.38388</v>
       </c>
       <c r="G91">
         <f>ABS(C91-F91)</f>
-        <v>0.17466999999999999</v>
+        <v>0.17488000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C92">
-        <v>0.15539</v>
+        <v>0.19838</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F92">
-        <v>0.32980999999999999</v>
+        <v>0.37304999999999999</v>
       </c>
       <c r="G92">
         <f>ABS(C92-F92)</f>
-        <v>0.17441999999999999</v>
+        <v>0.17466999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C93">
-        <v>0.24818999999999999</v>
+        <v>0.15539</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F93">
-        <v>0.42131999999999997</v>
+        <v>0.32980999999999999</v>
       </c>
       <c r="G93">
         <f>ABS(C93-F93)</f>
-        <v>0.17312999999999998</v>
+        <v>0.17441999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>0.24818999999999999</v>
+      </c>
+      <c r="D94" t="s">
         <v>17</v>
       </c>
-      <c r="C94">
-        <v>0.16838</v>
-      </c>
-      <c r="D94" t="s">
-        <v>23</v>
-      </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F94">
-        <v>0.33798</v>
+        <v>0.42131999999999997</v>
       </c>
       <c r="G94">
         <f>ABS(C94-F94)</f>
-        <v>0.1696</v>
+        <v>0.17312999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>0.21096999999999999</v>
+        <v>0.16838</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F95">
-        <v>0.37942999999999999</v>
+        <v>0.33798</v>
       </c>
       <c r="G95">
         <f>ABS(C95-F95)</f>
-        <v>0.16846</v>
+        <v>0.1696</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C96">
-        <v>0.39772999999999997</v>
+        <v>0.21096999999999999</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>0.56552999999999998</v>
+        <v>0.37942999999999999</v>
       </c>
       <c r="G96">
         <f>ABS(C96-F96)</f>
-        <v>0.1678</v>
+        <v>0.16846</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>0.31853999999999999</v>
+        <v>0.39772999999999997</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F97">
-        <v>0.48418</v>
+        <v>0.56552999999999998</v>
       </c>
       <c r="G97">
         <f>ABS(C97-F97)</f>
-        <v>0.16564000000000001</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C98">
-        <v>0.13891000000000001</v>
+        <v>0.31853999999999999</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F98">
-        <v>0.30409000000000003</v>
+        <v>0.48418</v>
       </c>
       <c r="G98">
         <f>ABS(C98-F98)</f>
-        <v>0.16518000000000002</v>
+        <v>0.16564000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,215 +2810,215 @@
         <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C99">
-        <v>0.28905999999999998</v>
+        <v>0.13891000000000001</v>
       </c>
       <c r="D99" t="s">
         <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F99">
-        <v>0.45312000000000002</v>
+        <v>0.30409000000000003</v>
       </c>
       <c r="G99">
         <f>ABS(C99-F99)</f>
-        <v>0.16406000000000004</v>
+        <v>0.16518000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100">
-        <v>0.23935000000000001</v>
+        <v>0.28905999999999998</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
       </c>
       <c r="F100">
-        <v>0.40317999999999998</v>
+        <v>0.45312000000000002</v>
       </c>
       <c r="G100">
         <f>ABS(C100-F100)</f>
-        <v>0.16382999999999998</v>
+        <v>0.16406000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
         <v>15</v>
       </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
       <c r="C101">
-        <v>0.14332</v>
+        <v>0.23935000000000001</v>
       </c>
       <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
         <v>15</v>
       </c>
-      <c r="E101" t="s">
-        <v>12</v>
-      </c>
       <c r="F101">
-        <v>0.30637999999999999</v>
+        <v>0.40317999999999998</v>
       </c>
       <c r="G101">
         <f>ABS(C101-F101)</f>
-        <v>0.16305999999999998</v>
+        <v>0.16382999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102">
-        <v>0.24256</v>
+        <v>0.14332</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102">
-        <v>0.40416000000000002</v>
+        <v>0.30637999999999999</v>
       </c>
       <c r="G102">
         <f>ABS(C102-F102)</f>
-        <v>0.16160000000000002</v>
+        <v>0.16305999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C103">
-        <v>0.37154999999999999</v>
+        <v>0.24256</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>0.53298000000000001</v>
+        <v>0.40416000000000002</v>
       </c>
       <c r="G103">
         <f>ABS(C103-F103)</f>
-        <v>0.16143000000000002</v>
+        <v>0.16160000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104">
-        <v>0.20451</v>
+        <v>0.37154999999999999</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104">
-        <v>0.36475000000000002</v>
+        <v>0.53298000000000001</v>
       </c>
       <c r="G104">
         <f>ABS(C104-F104)</f>
-        <v>0.16024000000000002</v>
+        <v>0.16143000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C105">
-        <v>0.13602</v>
+        <v>0.20451</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F105">
-        <v>0.29587999999999998</v>
+        <v>0.36475000000000002</v>
       </c>
       <c r="G105">
         <f>ABS(C105-F105)</f>
-        <v>0.15985999999999997</v>
+        <v>0.16024000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C106">
-        <v>0.23613999999999999</v>
+        <v>0.13602</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E106" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F106">
-        <v>0.39387</v>
+        <v>0.29587999999999998</v>
       </c>
       <c r="G106">
         <f>ABS(C106-F106)</f>
-        <v>0.15773000000000001</v>
+        <v>0.15985999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.16774</v>
+        <v>0.23613999999999999</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F107">
-        <v>0.32491999999999999</v>
+        <v>0.39387</v>
       </c>
       <c r="G107">
         <f>ABS(C107-F107)</f>
-        <v>0.15717999999999999</v>
+        <v>0.15773000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3026,95 +3026,95 @@
         <v>31</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108">
-        <v>0.19291</v>
+        <v>0.16774</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108">
-        <v>0.34864000000000001</v>
+        <v>0.32491999999999999</v>
       </c>
       <c r="G108">
         <f>ABS(C108-F108)</f>
-        <v>0.15573000000000001</v>
+        <v>0.15717999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109">
-        <v>0.27794000000000002</v>
+        <v>0.19291</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
       </c>
       <c r="F109">
-        <v>0.43367</v>
+        <v>0.34864000000000001</v>
       </c>
       <c r="G109">
         <f>ABS(C109-F109)</f>
-        <v>0.15572999999999998</v>
+        <v>0.15573000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>0.18958</v>
+        <v>0.27794000000000002</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F110">
-        <v>0.34472000000000003</v>
+        <v>0.43367</v>
       </c>
       <c r="G110">
         <f>ABS(C110-F110)</f>
-        <v>0.15514000000000003</v>
+        <v>0.15572999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C111">
-        <v>0.27766999999999997</v>
+        <v>0.18958</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F111">
-        <v>0.43275999999999998</v>
+        <v>0.34472000000000003</v>
       </c>
       <c r="G111">
         <f>ABS(C111-F111)</f>
-        <v>0.15509000000000001</v>
+        <v>0.15514000000000003</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,95 +3122,95 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>0.2354</v>
+        <v>0.27766999999999997</v>
       </c>
       <c r="D112" t="s">
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F112">
-        <v>0.38961000000000001</v>
+        <v>0.43275999999999998</v>
       </c>
       <c r="G112">
         <f>ABS(C112-F112)</f>
-        <v>0.15421000000000001</v>
+        <v>0.15509000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C113">
-        <v>0.24481</v>
+        <v>0.2354</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>0.39861999999999997</v>
+        <v>0.38961000000000001</v>
       </c>
       <c r="G113">
         <f>ABS(C113-F113)</f>
-        <v>0.15380999999999997</v>
+        <v>0.15421000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C114">
-        <v>0.17709</v>
+        <v>0.24481</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F114">
-        <v>0.33050000000000002</v>
+        <v>0.39861999999999997</v>
       </c>
       <c r="G114">
         <f>ABS(C114-F114)</f>
-        <v>0.15341000000000002</v>
+        <v>0.15380999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115">
-        <v>0.25307000000000002</v>
+        <v>0.17709</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F115">
-        <v>0.40222999999999998</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="G115">
         <f>ABS(C115-F115)</f>
-        <v>0.14915999999999996</v>
+        <v>0.15341000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3218,911 +3218,911 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C116">
-        <v>0.18135000000000001</v>
+        <v>0.25307000000000002</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F116">
-        <v>0.32890000000000003</v>
+        <v>0.40222999999999998</v>
       </c>
       <c r="G116">
         <f>ABS(C116-F116)</f>
-        <v>0.14755000000000001</v>
+        <v>0.14915999999999996</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>0.38374000000000003</v>
+        <v>0.18135000000000001</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F117">
-        <v>0.53076000000000001</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="G117">
         <f>ABS(C117-F117)</f>
-        <v>0.14701999999999998</v>
+        <v>0.14755000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C118">
-        <v>0.22320999999999999</v>
+        <v>0.38374000000000003</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F118">
-        <v>0.36992999999999998</v>
+        <v>0.53076000000000001</v>
       </c>
       <c r="G118">
         <f>ABS(C118-F118)</f>
-        <v>0.14671999999999999</v>
+        <v>0.14701999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>0.28697</v>
+        <v>0.22320999999999999</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F119">
-        <v>0.42892999999999998</v>
+        <v>0.36992999999999998</v>
       </c>
       <c r="G119">
         <f>ABS(C119-F119)</f>
-        <v>0.14195999999999998</v>
+        <v>0.14671999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C120">
-        <v>0.29842000000000002</v>
+        <v>0.28697</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F120">
-        <v>0.15676000000000001</v>
+        <v>0.42892999999999998</v>
       </c>
       <c r="G120">
         <f>ABS(C120-F120)</f>
-        <v>0.14166000000000001</v>
+        <v>0.14195999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C121">
-        <v>0.1706</v>
+        <v>0.29842000000000002</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F121">
-        <v>0.31131999999999999</v>
+        <v>0.15676000000000001</v>
       </c>
       <c r="G121">
         <f>ABS(C121-F121)</f>
-        <v>0.14071999999999998</v>
+        <v>0.14166000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>0.1706</v>
+      </c>
+      <c r="D122" t="s">
         <v>22</v>
       </c>
-      <c r="C122">
-        <v>0.21426000000000001</v>
-      </c>
-      <c r="D122" t="s">
-        <v>23</v>
-      </c>
       <c r="E122" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>0.35420000000000001</v>
+        <v>0.31131999999999999</v>
       </c>
       <c r="G122">
         <f>ABS(C122-F122)</f>
-        <v>0.13994000000000001</v>
+        <v>0.14071999999999998</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C123">
-        <v>0.18854000000000001</v>
+        <v>0.21426000000000001</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F123">
-        <v>0.32817000000000002</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="G123">
         <f>ABS(C123-F123)</f>
-        <v>0.13963</v>
+        <v>0.13994000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>0.25108999999999998</v>
+        <v>0.18854000000000001</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F124">
-        <v>0.38940999999999998</v>
+        <v>0.32817000000000002</v>
       </c>
       <c r="G124">
         <f>ABS(C124-F124)</f>
-        <v>0.13832</v>
+        <v>0.13963</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C125">
-        <v>0.29537000000000002</v>
+        <v>0.25108999999999998</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F125">
-        <v>0.43273</v>
+        <v>0.38940999999999998</v>
       </c>
       <c r="G125">
         <f>ABS(C125-F125)</f>
-        <v>0.13735999999999998</v>
+        <v>0.13832</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C126">
-        <v>0.14371</v>
+        <v>0.29537000000000002</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F126">
-        <v>0.28044000000000002</v>
+        <v>0.43273</v>
       </c>
       <c r="G126">
         <f>ABS(C126-F126)</f>
-        <v>0.13673000000000002</v>
+        <v>0.13735999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C127">
-        <v>0.26086999999999999</v>
+        <v>0.14371</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F127">
-        <v>0.39623000000000003</v>
+        <v>0.28044000000000002</v>
       </c>
       <c r="G127">
         <f>ABS(C127-F127)</f>
-        <v>0.13536000000000004</v>
+        <v>0.13673000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.16103999999999999</v>
+        <v>0.26086999999999999</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F128">
-        <v>0.29537000000000002</v>
+        <v>0.39623000000000003</v>
       </c>
       <c r="G128">
         <f>ABS(C128-F128)</f>
-        <v>0.13433000000000003</v>
+        <v>0.13536000000000004</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C129">
-        <v>0.29848999999999998</v>
+        <v>0.16103999999999999</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F129">
-        <v>0.43260999999999999</v>
+        <v>0.29537000000000002</v>
       </c>
       <c r="G129">
         <f>ABS(C129-F129)</f>
-        <v>0.13412000000000002</v>
+        <v>0.13433000000000003</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C130">
-        <v>0.75444999999999995</v>
+        <v>0.29848999999999998</v>
       </c>
       <c r="D130" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F130">
-        <v>0.88826000000000005</v>
+        <v>0.43260999999999999</v>
       </c>
       <c r="G130">
         <f>ABS(C130-F130)</f>
-        <v>0.1338100000000001</v>
+        <v>0.13412000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>0.19455</v>
+        <v>0.75444999999999995</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F131">
-        <v>0.32606000000000002</v>
+        <v>0.88826000000000005</v>
       </c>
       <c r="G131">
         <f>ABS(C131-F131)</f>
-        <v>0.13151000000000002</v>
+        <v>0.1338100000000001</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C132">
-        <v>0.26566000000000001</v>
+        <v>0.19455</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F132">
-        <v>0.13575999999999999</v>
+        <v>0.32606000000000002</v>
       </c>
       <c r="G132">
         <f>ABS(C132-F132)</f>
-        <v>0.12990000000000002</v>
+        <v>0.13151000000000002</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C133">
-        <v>0.17408999999999999</v>
+        <v>0.26566000000000001</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F133">
-        <v>0.30170999999999998</v>
+        <v>0.13575999999999999</v>
       </c>
       <c r="G133">
         <f>ABS(C133-F133)</f>
-        <v>0.12761999999999998</v>
+        <v>0.12990000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C134">
-        <v>0.23616999999999999</v>
+        <v>0.17408999999999999</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F134">
-        <v>0.36365999999999998</v>
+        <v>0.30170999999999998</v>
       </c>
       <c r="G134">
         <f>ABS(C134-F134)</f>
-        <v>0.12748999999999999</v>
+        <v>0.12761999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C135">
-        <v>0.25957000000000002</v>
+        <v>0.23616999999999999</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F135">
-        <v>0.38330999999999998</v>
+        <v>0.36365999999999998</v>
       </c>
       <c r="G135">
         <f>ABS(C135-F135)</f>
-        <v>0.12373999999999996</v>
+        <v>0.12748999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>0.25957000000000002</v>
+      </c>
+      <c r="D136" t="s">
         <v>25</v>
       </c>
-      <c r="C136">
-        <v>0.1431</v>
-      </c>
-      <c r="D136" t="s">
-        <v>15</v>
-      </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F136">
-        <v>0.26616000000000001</v>
+        <v>0.38330999999999998</v>
       </c>
       <c r="G136">
         <f>ABS(C136-F136)</f>
-        <v>0.12306</v>
+        <v>0.12373999999999996</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
         <v>25</v>
       </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
       <c r="C137">
-        <v>0.16449</v>
+        <v>0.1431</v>
       </c>
       <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" t="s">
         <v>25</v>
       </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
       <c r="F137">
-        <v>0.28495999999999999</v>
+        <v>0.26616000000000001</v>
       </c>
       <c r="G137">
         <f>ABS(C137-F137)</f>
-        <v>0.12046999999999999</v>
+        <v>0.12306</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C138">
-        <v>0.46909000000000001</v>
+        <v>0.16449</v>
       </c>
       <c r="D138" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>0.58914</v>
+        <v>0.28495999999999999</v>
       </c>
       <c r="G138">
         <f>ABS(C138-F138)</f>
-        <v>0.12004999999999999</v>
+        <v>0.12046999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
         <v>7</v>
       </c>
-      <c r="B139" t="s">
-        <v>25</v>
-      </c>
       <c r="C139">
-        <v>0.22020999999999999</v>
+        <v>0.46909000000000001</v>
       </c>
       <c r="D139" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" t="s">
         <v>7</v>
       </c>
-      <c r="E139" t="s">
-        <v>25</v>
-      </c>
       <c r="F139">
-        <v>0.33939999999999998</v>
+        <v>0.58914</v>
       </c>
       <c r="G139">
         <f>ABS(C139-F139)</f>
-        <v>0.11918999999999999</v>
+        <v>0.12004999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C140">
-        <v>0.46806999999999999</v>
+        <v>0.22020999999999999</v>
       </c>
       <c r="D140" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F140">
-        <v>0.58721000000000001</v>
+        <v>0.33939999999999998</v>
       </c>
       <c r="G140">
         <f>ABS(C140-F140)</f>
-        <v>0.11914000000000002</v>
+        <v>0.11918999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0.25802999999999998</v>
+        <v>0.46806999999999999</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F141">
-        <v>0.37673000000000001</v>
+        <v>0.58721000000000001</v>
       </c>
       <c r="G141">
         <f>ABS(C141-F141)</f>
-        <v>0.11870000000000003</v>
+        <v>0.11914000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C142">
-        <v>0.23691999999999999</v>
+        <v>0.25802999999999998</v>
       </c>
       <c r="D142" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F142">
-        <v>0.35498000000000002</v>
+        <v>0.37673000000000001</v>
       </c>
       <c r="G142">
         <f>ABS(C142-F142)</f>
-        <v>0.11806000000000003</v>
+        <v>0.11870000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B143" t="s">
         <v>9</v>
       </c>
       <c r="C143">
-        <v>0.28055000000000002</v>
+        <v>0.23691999999999999</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E143" t="s">
         <v>9</v>
       </c>
       <c r="F143">
-        <v>0.39696999999999999</v>
+        <v>0.35498000000000002</v>
       </c>
       <c r="G143">
         <f>ABS(C143-F143)</f>
-        <v>0.11641999999999997</v>
+        <v>0.11806000000000003</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>0.18457000000000001</v>
+        <v>0.28055000000000002</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F144">
-        <v>0.30076999999999998</v>
+        <v>0.39696999999999999</v>
       </c>
       <c r="G144">
         <f>ABS(C144-F144)</f>
-        <v>0.11619999999999997</v>
+        <v>0.11641999999999997</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C145">
-        <v>0.32724999999999999</v>
+        <v>0.18457000000000001</v>
       </c>
       <c r="D145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F145">
-        <v>0.44335999999999998</v>
+        <v>0.30076999999999998</v>
       </c>
       <c r="G145">
         <f>ABS(C145-F145)</f>
-        <v>0.11610999999999999</v>
+        <v>0.11619999999999997</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>0.15648000000000001</v>
+        <v>0.32724999999999999</v>
       </c>
       <c r="D146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>0.27245000000000003</v>
+        <v>0.44335999999999998</v>
       </c>
       <c r="G146">
         <f>ABS(C146-F146)</f>
-        <v>0.11597000000000002</v>
+        <v>0.11610999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>0.26401000000000002</v>
+        <v>0.15648000000000001</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>0.14840999999999999</v>
+        <v>0.27245000000000003</v>
       </c>
       <c r="G147">
         <f>ABS(C147-F147)</f>
-        <v>0.11560000000000004</v>
+        <v>0.11597000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>0.26534999999999997</v>
+        <v>0.26401000000000002</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E148" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F148">
-        <v>0.38075999999999999</v>
+        <v>0.14840999999999999</v>
       </c>
       <c r="G148">
         <f>ABS(C148-F148)</f>
-        <v>0.11541000000000001</v>
+        <v>0.11560000000000004</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C149">
-        <v>0.26782</v>
+        <v>0.26534999999999997</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F149">
-        <v>0.15329000000000001</v>
+        <v>0.38075999999999999</v>
       </c>
       <c r="G149">
         <f>ABS(C149-F149)</f>
-        <v>0.11452999999999999</v>
+        <v>0.11541000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C150">
-        <v>0.23841999999999999</v>
+        <v>0.26782</v>
       </c>
       <c r="D150" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F150">
-        <v>0.35272999999999999</v>
+        <v>0.15329000000000001</v>
       </c>
       <c r="G150">
         <f>ABS(C150-F150)</f>
-        <v>0.11430999999999999</v>
+        <v>0.11452999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C151">
-        <v>0.70565999999999995</v>
+        <v>0.23841999999999999</v>
       </c>
       <c r="D151" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F151">
-        <v>0.59140000000000004</v>
+        <v>0.35272999999999999</v>
       </c>
       <c r="G151">
         <f>ABS(C151-F151)</f>
-        <v>0.11425999999999992</v>
+        <v>0.11430999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C152">
-        <v>0.17299</v>
+        <v>0.70565999999999995</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>0.28681000000000001</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="G152">
         <f>ABS(C152-F152)</f>
-        <v>0.11382</v>
+        <v>0.11425999999999992</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C153">
-        <v>0.26558999999999999</v>
+        <v>0.17299</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E153" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F153">
-        <v>0.35397000000000001</v>
+        <v>0.28681000000000001</v>
       </c>
       <c r="G153">
-        <f>ABS(C153-F154)</f>
-        <v>0.25446000000000002</v>
+        <f>ABS(C153-F153)</f>
+        <v>0.11382</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
